--- a/public/about_page/about_page_data.xlsx
+++ b/public/about_page/about_page_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Projects\shpe_website\my_shpe_website\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\psu_shpe_website-main\psu_shpe_website-main\public\about_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13A7DBD-128E-48C5-8D9F-6B9238665D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9E979-94A5-471F-96B0-64B9F1E0AB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="4590" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,51 +31,51 @@
     <t>description</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/xdDzP4Np/convention-about.jpg</t>
-  </si>
-  <si>
     <t>About SHPE</t>
   </si>
   <si>
     <t>The Society of Hispanic Professional Engineers is the largest association for Hispanics in STEM—offering effective training, mentorship, and programming.</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/B6JPrPgx/event-about.jpg</t>
-  </si>
-  <si>
     <t>Why Join SHPE?</t>
   </si>
   <si>
+    <t>Our Mission</t>
+  </si>
+  <si>
+    <t>SHPE empowers the Hispanic community to realize its fullest potential and impact the world through STEM awareness, access, and development.</t>
+  </si>
+  <si>
+    <t>Our Values</t>
+  </si>
+  <si>
+    <t>SHPE envisions a world where Hispanics are influential innovators, scientists, mathematicians, and engineers.</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WDLJyLJ/DSC00536.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/jD9W7sc/IMG-4139.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/FhkV5vp/IMG-7549.jpg</t>
+  </si>
+  <si>
     <t>- Job &amp; Internship Opportunities
-- Scholarships
+- Scholarships for Memberes
 - Professional Networking
-- Annual National Event
-- Career Support</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/xdvbp3Kf/members-about.jpg</t>
-  </si>
-  <si>
-    <t>Our Mission</t>
-  </si>
-  <si>
-    <t>SHPE empowers the Hispanic community to realize its fullest potential and impact the world through STEM awareness, access, and development.</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/bJLSpYC4/speakers-about.jpg</t>
-  </si>
-  <si>
-    <t>Our Values</t>
-  </si>
-  <si>
-    <t>SHPE envisions a world where Hispanics are influential innovators, scientists, mathematicians, and engineers.</t>
+- Annual 4 Day Nationals Event
+- Career &amp; Academic Support</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/RYx7nd3/IMG-1008.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -88,12 +88,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -128,14 +122,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -358,12 +354,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,48 +370,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
